--- a/data/CS5/case9/case9_2048.xlsx
+++ b/data/CS5/case9/case9_2048.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS5\case9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04B07126-AFC2-4E2B-B7C6-8A3502738E67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{664DC8FE-4604-4888-AD72-8927B9A1941F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30720" yWindow="-12360" windowWidth="28800" windowHeight="15285" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32070" yWindow="-11010" windowWidth="28800" windowHeight="15285" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -4401,7 +4401,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4414,11 +4414,10 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f t="shared" ref="D1:E1" si="0">1/3</f>

--- a/data/CS5/case9/case9_2048.xlsx
+++ b/data/CS5/case9/case9_2048.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS5\case9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{664DC8FE-4604-4888-AD72-8927B9A1941F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{945DFD52-691A-4C5F-912B-2D47E8AC21D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32070" yWindow="-11010" windowWidth="28800" windowHeight="15285" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38145" yWindow="-11715" windowWidth="28800" windowHeight="15285" tabRatio="722" firstSheet="36" activeTab="43" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -4400,7 +4400,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -31060,8 +31060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F42CD27A-91A8-4D31-B70E-255219E25912}">
   <dimension ref="A1:Y10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U43" sqref="U43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -31302,76 +31302,76 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">

--- a/data/CS5/case9/case9_2048.xlsx
+++ b/data/CS5/case9/case9_2048.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS5\case9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{945DFD52-691A-4C5F-912B-2D47E8AC21D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA56E0EF-FB0C-490B-88BE-A8638D0F1B04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38145" yWindow="-11715" windowWidth="28800" windowHeight="15285" tabRatio="722" firstSheet="36" activeTab="43" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32445" yWindow="-9165" windowWidth="28800" windowHeight="15285" tabRatio="722" firstSheet="74" activeTab="82" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -31060,7 +31060,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F42CD27A-91A8-4D31-B70E-255219E25912}">
   <dimension ref="A1:Y10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
@@ -65668,8 +65668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49630D89-783A-49F7-9E51-4F1FD5546230}">
   <dimension ref="A1:Y10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:Y4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -65910,76 +65910,76 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">

--- a/data/CS5/case9/case9_2048.xlsx
+++ b/data/CS5/case9/case9_2048.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS5\case9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA56E0EF-FB0C-490B-88BE-A8638D0F1B04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1DC941C-78C4-45D9-9655-F11D6D6A55EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32445" yWindow="-9165" windowWidth="28800" windowHeight="15285" tabRatio="722" firstSheet="74" activeTab="82" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2964" yWindow="2964" windowWidth="17280" windowHeight="9960" tabRatio="722" firstSheet="74" activeTab="82" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -65669,7 +65669,7 @@
   <dimension ref="A1:Y10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:Y4"/>
+      <selection activeCell="B3" sqref="B3:Y3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -65833,76 +65833,76 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.3">

--- a/data/CS5/case9/case9_2048.xlsx
+++ b/data/CS5/case9/case9_2048.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS5\case9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1DC941C-78C4-45D9-9655-F11D6D6A55EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59BBBE1C-94E8-4005-A4A2-575444413A0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2964" yWindow="2964" windowWidth="17280" windowHeight="9960" tabRatio="722" firstSheet="74" activeTab="82" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="36990" yWindow="-10200" windowWidth="28800" windowHeight="15285" tabRatio="722" firstSheet="74" activeTab="82" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -65833,76 +65833,76 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.3">

--- a/data/CS5/case9/case9_2048.xlsx
+++ b/data/CS5/case9/case9_2048.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS5\case9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59BBBE1C-94E8-4005-A4A2-575444413A0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CD27AE2-8736-4331-946F-E5AEB020AE21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36990" yWindow="-10200" windowWidth="28800" windowHeight="15285" tabRatio="722" firstSheet="74" activeTab="82" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29715" yWindow="-13365" windowWidth="28800" windowHeight="15285" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -4400,8 +4400,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4417,39 +4417,40 @@
         <v>1</v>
       </c>
       <c r="C1" s="1">
+        <f>1/$B$1</f>
         <v>1</v>
       </c>
       <c r="D1" s="1">
-        <f t="shared" ref="D1:E1" si="0">1/3</f>
-        <v>0.33333333333333331</v>
+        <f t="shared" ref="D1:K1" si="0">1/$B$1</f>
+        <v>1</v>
       </c>
       <c r="E1" s="1">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="F1" s="1">
-        <f t="shared" ref="F1:K1" si="1">1/9</f>
-        <v>0.1111111111111111</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="G1" s="1">
-        <f t="shared" si="1"/>
-        <v>0.1111111111111111</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="H1" s="1">
-        <f t="shared" si="1"/>
-        <v>0.1111111111111111</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="I1" s="1">
-        <f t="shared" si="1"/>
-        <v>0.1111111111111111</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="J1" s="1">
-        <f t="shared" si="1"/>
-        <v>0.1111111111111111</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="K1" s="1">
-        <f t="shared" si="1"/>
-        <v>0.1111111111111111</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -65668,7 +65669,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49630D89-783A-49F7-9E51-4F1FD5546230}">
   <dimension ref="A1:Y10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3:Y3"/>
     </sheetView>
   </sheetViews>

--- a/data/CS5/case9/case9_2048.xlsx
+++ b/data/CS5/case9/case9_2048.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS5\case9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CD27AE2-8736-4331-946F-E5AEB020AE21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{239EA9B8-E11A-43AE-B915-D49064104626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29715" yWindow="-13365" windowWidth="28800" windowHeight="15285" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32445" yWindow="-10350" windowWidth="17280" windowHeight="9960" tabRatio="722" firstSheet="79" activeTab="82" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -4400,7 +4400,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1:K1"/>
     </sheetView>
   </sheetViews>
@@ -31061,8 +31061,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F42CD27A-91A8-4D31-B70E-255219E25912}">
   <dimension ref="A1:Y10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:Y4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -31303,76 +31303,76 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
@@ -65669,8 +65669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49630D89-783A-49F7-9E51-4F1FD5546230}">
   <dimension ref="A1:Y10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:Y3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:Y4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -65911,76 +65911,76 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">

--- a/data/CS5/case9/case9_2048.xlsx
+++ b/data/CS5/case9/case9_2048.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS5\case9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{239EA9B8-E11A-43AE-B915-D49064104626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{227D6466-BDDB-4934-B542-35B87666569F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32445" yWindow="-10350" windowWidth="17280" windowHeight="9960" tabRatio="722" firstSheet="79" activeTab="82" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32880" yWindow="-9915" windowWidth="17280" windowHeight="9960" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -4400,8 +4400,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:K1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4414,43 +4414,43 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f t="shared" ref="D1:K1" si="0">1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E1" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="F1" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="G1" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="H1" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="I1" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="J1" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="K1" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -65669,7 +65669,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49630D89-783A-49F7-9E51-4F1FD5546230}">
   <dimension ref="A1:Y10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4:Y4"/>
     </sheetView>
   </sheetViews>

--- a/data/CS5/case9/case9_2048.xlsx
+++ b/data/CS5/case9/case9_2048.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS5\case9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{227D6466-BDDB-4934-B542-35B87666569F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71F6E06A-6D98-4171-8C4E-DE4DEE9CD296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32880" yWindow="-9915" windowWidth="17280" windowHeight="9960" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-14400" windowWidth="38640" windowHeight="21120" tabRatio="722" firstSheet="71" activeTab="82" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -4400,7 +4400,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -31061,7 +31061,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F42CD27A-91A8-4D31-B70E-255219E25912}">
   <dimension ref="A1:Y10"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4:Y4"/>
     </sheetView>
   </sheetViews>
@@ -31303,76 +31303,76 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
@@ -65669,7 +65669,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49630D89-783A-49F7-9E51-4F1FD5546230}">
   <dimension ref="A1:Y10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4:Y4"/>
     </sheetView>
   </sheetViews>
@@ -65911,76 +65911,76 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">

--- a/data/CS5/case9/case9_2048.xlsx
+++ b/data/CS5/case9/case9_2048.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS5\case9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71F6E06A-6D98-4171-8C4E-DE4DEE9CD296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76EEBB2B-B6A4-49F8-A7E5-96BDB97BF614}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-14400" windowWidth="38640" windowHeight="21120" tabRatio="722" firstSheet="71" activeTab="82" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -4400,7 +4400,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -65669,7 +65669,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49630D89-783A-49F7-9E51-4F1FD5546230}">
   <dimension ref="A1:Y10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4:Y4"/>
     </sheetView>
   </sheetViews>

--- a/data/CS5/case9/case9_2048.xlsx
+++ b/data/CS5/case9/case9_2048.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS5\case9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76EEBB2B-B6A4-49F8-A7E5-96BDB97BF614}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C711667E-C473-4262-BF17-0E302506FAA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4414,43 +4414,43 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f t="shared" ref="D1:K1" si="0">1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="E1" s="1">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="F1" s="1">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="G1" s="1">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="H1" s="1">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="I1" s="1">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="J1" s="1">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="K1" s="1">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">

--- a/data/CS5/case9/case9_2048.xlsx
+++ b/data/CS5/case9/case9_2048.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS5\case9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C711667E-C473-4262-BF17-0E302506FAA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72BA4E0E-F57A-42AA-AF10-5446B431B3D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-14400" windowWidth="38640" windowHeight="21120" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -4414,43 +4414,43 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f t="shared" ref="D1:K1" si="0">1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E1" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="F1" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="G1" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="H1" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="I1" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="J1" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="K1" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">

--- a/data/CS5/case9/case9_2048.xlsx
+++ b/data/CS5/case9/case9_2048.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS5\case9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72BA4E0E-F57A-42AA-AF10-5446B431B3D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A3D6B0A-0C51-4574-B044-2423861F7CF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-14400" windowWidth="38640" windowHeight="21120" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
